--- a/Tables/P-values_singleton_updated.xlsx
+++ b/Tables/P-values_singleton_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/a_Papers/Rapid_drought/Paper 3/climate_lag/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5984CFD1-8801-D940-A861-2A889DC7DC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95BC673-F5E1-2948-977B-9B9C07506F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="16440" xr2:uid="{4B19A33B-149B-EC4E-8A61-247B3ECE97CF}"/>
   </bookViews>
@@ -165,10 +165,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -179,7 +178,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -499,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C877F919-A6FB-CA40-A4FA-006E1144D275}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -510,31 +508,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -554,13 +552,13 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>7.3825088665903396</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>1.21773755384397E-4</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="2">
         <v>0.105293127463032</v>
       </c>
       <c r="I2" s="2">
@@ -583,13 +581,13 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>3.3620524079231</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>9.5118458722078698E-3</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="2">
         <v>4.3141492787442899E-2</v>
       </c>
       <c r="I3" s="2">
@@ -612,13 +610,13 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>3.01811982738786</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>1.40151054911933E-2</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="2">
         <v>4.0400138844306599E-2</v>
       </c>
       <c r="I4" s="2">
@@ -641,13 +639,13 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>3.92999826330129</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>5.0540489576879196E-3</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="2">
         <v>4.6657626373838398E-2</v>
       </c>
       <c r="I5" s="2">
@@ -670,13 +668,13 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>7.90053519387902</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>7.0362690894405395E-5</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="2">
         <v>0.27062624337754099</v>
       </c>
       <c r="I6" s="2">
@@ -699,13 +697,13 @@
       <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>3.9612782096914998</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>4.8822238741636301E-3</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="2">
         <v>5.9398365243379297E-2</v>
       </c>
       <c r="I7" s="2">
@@ -728,13 +726,13 @@
       <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>3.4303318886534302</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>8.8113810618483408E-3</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="2">
         <v>5.6275584302194599E-2</v>
       </c>
       <c r="I8" s="2">
@@ -757,13 +755,13 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>3.5026006894963801</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>8.1273230918384003E-3</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="2">
         <v>5.7528708960205302E-2</v>
       </c>
       <c r="I9" s="2">
@@ -786,13 +784,13 @@
       <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>4.14255488015624</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>3.9971488481315301E-3</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="2">
         <v>6.2671573517007306E-2</v>
       </c>
       <c r="I10" s="2">
@@ -815,13 +813,13 @@
       <c r="E11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>3.3948555302190502</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>9.1684746913961793E-3</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="2">
         <v>5.8232681210707203E-2</v>
       </c>
       <c r="I11" s="2">
@@ -844,13 +842,13 @@
       <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>4.48329297916416</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>2.7496191203513301E-3</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="2">
         <v>9.3975086789930995E-2</v>
       </c>
       <c r="I12" s="2">
@@ -873,13 +871,13 @@
       <c r="E13" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>4.4920201042155004</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>2.7234780286254398E-3</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="2">
         <v>9.3938288965691799E-2</v>
       </c>
       <c r="I13" s="2">
@@ -902,13 +900,13 @@
       <c r="E14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>5.4583271956444204</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>9.5303567382689703E-4</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="2">
         <v>9.8588296004855996E-2</v>
       </c>
       <c r="I14" s="2">
@@ -931,13 +929,13 @@
       <c r="E15" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>4.7997177299844198</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>1.9463719997416199E-3</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="2">
         <v>9.84427358124354E-2</v>
       </c>
       <c r="I15" s="2">
@@ -960,13 +958,13 @@
       <c r="E16" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>2.8138045692303399</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>1.7679729243971699E-2</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="2">
         <v>7.19865237853652E-2</v>
       </c>
       <c r="I16" s="2">
@@ -989,13 +987,13 @@
       <c r="E17" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>2.4977665143565</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>2.5412825143865302E-2</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="2">
         <v>6.76647692440875E-2</v>
       </c>
       <c r="I17" s="2">
@@ -1018,13 +1016,13 @@
       <c r="E18" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>2.8282348607788199</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>1.73910940583187E-2</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="2">
         <v>7.12033923822816E-2</v>
       </c>
       <c r="I18" s="2">
@@ -1047,13 +1045,13 @@
       <c r="E19" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>2.2251165390218799</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>3.4896483592150099E-2</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="2">
         <v>6.9178496119060601E-2</v>
       </c>
       <c r="I19" s="2">
@@ -1076,13 +1074,13 @@
       <c r="E20" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>2.3927541921114002</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>2.8700174536104101E-2</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="2">
         <v>7.3651010031974301E-2</v>
       </c>
       <c r="I20" s="2">
@@ -1105,13 +1103,13 @@
       <c r="E21" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>4.8991396395008504</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>1.7467523924650701E-3</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="2">
         <v>0.195802660558621</v>
       </c>
       <c r="I21" s="2">
@@ -1134,13 +1132,13 @@
       <c r="E22" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>5.4191268055269601</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>9.9424460232483804E-4</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="2">
         <v>0.20003385259144399</v>
       </c>
       <c r="I22" s="2">
@@ -1163,13 +1161,13 @@
       <c r="E23" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>4.7249659710923897</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>2.1115693566540702E-3</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="2">
         <v>0.19404011734471699</v>
       </c>
       <c r="I23" s="2">
@@ -1192,13 +1190,13 @@
       <c r="E24" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>3.0953572055193499</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>1.28422332783654E-2</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="2">
         <v>7.00861148809407E-2</v>
       </c>
       <c r="I24" s="2">
@@ -1221,13 +1219,13 @@
       <c r="E25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>3.50025597687045</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>8.1486408335020594E-3</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="2">
         <v>7.2879835191404604E-2</v>
       </c>
       <c r="I25" s="2">
@@ -1250,13 +1248,13 @@
       <c r="E26" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>6.58814291043109</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>2.8351412553900298E-4</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="2">
         <v>0.11342208817665</v>
       </c>
       <c r="I26" s="2">
@@ -1279,13 +1277,13 @@
       <c r="E27" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>6.2819066588531296</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>3.9328840379594399E-4</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="2">
         <v>0.11052319600487701</v>
       </c>
       <c r="I27" s="2">
@@ -1308,13 +1306,13 @@
       <c r="E28" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>4.9211398504778598</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <v>1.70546008038632E-3</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="2">
         <v>0.109472453342606</v>
       </c>
       <c r="I28" s="2">
@@ -1337,13 +1335,13 @@
       <c r="E29" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>4.7817832155903899</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <v>1.9847713292334701E-3</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="2">
         <v>0.18030547438726</v>
       </c>
       <c r="I29" s="2">
@@ -1366,13 +1364,13 @@
       <c r="E30" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>5.8378378173751999</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <v>6.3322541121555603E-4</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="2">
         <v>0.23190106521571699</v>
       </c>
       <c r="I30" s="2">
@@ -1395,13 +1393,13 @@
       <c r="E31" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>4.9965819502015201</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="3">
         <v>1.57122413134043E-3</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="2">
         <v>0.21791531044381601</v>
       </c>
       <c r="I31" s="2">
@@ -1424,13 +1422,13 @@
       <c r="E32" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>4.8757362285182397</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <v>1.79179136974468E-3</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="2">
         <v>0.21562136385400499</v>
       </c>
       <c r="I32" s="2">
@@ -1453,13 +1451,13 @@
       <c r="E33" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>5.1119941984609296</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="3">
         <v>1.3862575318945201E-3</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="2">
         <v>0.228009441410438</v>
       </c>
       <c r="I33" s="2">
@@ -1482,13 +1480,13 @@
       <c r="E34" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>5.7191998567373004</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="3">
         <v>7.1941723664979999E-4</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="2">
         <v>0.248352468083363</v>
       </c>
       <c r="I34" s="2">
@@ -1511,13 +1509,13 @@
       <c r="E35" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>2.2902571453823799</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="3">
         <v>3.2337507881230902E-2</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="2">
         <v>1.6368641351491499E-2</v>
       </c>
       <c r="I35" s="2">
@@ -1540,13 +1538,13 @@
       <c r="E36" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>2.4004253099421899</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="3">
         <v>2.84456891707748E-2</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="2">
         <v>1.6680844646860801E-2</v>
       </c>
       <c r="I36" s="2">
@@ -1569,13 +1567,13 @@
       <c r="E37" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <v>2.41294073070048</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="3">
         <v>2.80355263461535E-2</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="2">
         <v>1.55070812855733E-2</v>
       </c>
       <c r="I37" s="2">
@@ -1598,13 +1596,13 @@
       <c r="E38" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <v>1.7272775731141801</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="4">
         <v>6.3077706514968995E-2</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="2">
         <v>1.5468245897434899E-2</v>
       </c>
       <c r="I38" s="2">
@@ -1627,13 +1625,13 @@
       <c r="E39" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>1.61649764130198</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="4">
         <v>7.2168578807961806E-2</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="2">
         <v>1.54818700100247E-2</v>
       </c>
       <c r="I39" s="2">
@@ -1641,9 +1639,21 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G40" s="6"/>
+      <c r="G40" s="5"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H2:H39">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tables/P-values_singleton_updated.xlsx
+++ b/Tables/P-values_singleton_updated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/a_Papers/Rapid_drought/Paper 3/climate_lag/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95BC673-F5E1-2948-977B-9B9C07506F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0E9565-1F28-D24E-BEDB-F1351BC521F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="16440" xr2:uid="{4B19A33B-149B-EC4E-8A61-247B3ECE97CF}"/>
   </bookViews>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C877F919-A6FB-CA40-A4FA-006E1144D275}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1182,7 +1182,7 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -1211,7 +1211,7 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
